--- a/result/problem_1/erf/result_7.xlsx
+++ b/result/problem_1/erf/result_7.xlsx
@@ -473,16 +473,16 @@
         <v>11368352</v>
       </c>
       <c r="C2" t="n">
-        <v>2845</v>
+        <v>3898</v>
       </c>
       <c r="D2" t="n">
-        <v>4443</v>
+        <v>4294</v>
       </c>
       <c r="E2" t="n">
         <v>3150</v>
       </c>
       <c r="F2" t="n">
-        <v>1293</v>
+        <v>1144</v>
       </c>
       <c r="G2" t="n">
         <v>396</v>
@@ -496,16 +496,16 @@
         <v>11368474</v>
       </c>
       <c r="C3" t="n">
-        <v>2977</v>
+        <v>4294</v>
       </c>
       <c r="D3" t="n">
-        <v>4575</v>
+        <v>4690</v>
       </c>
       <c r="E3" t="n">
         <v>3150</v>
       </c>
       <c r="F3" t="n">
-        <v>1425</v>
+        <v>1540</v>
       </c>
       <c r="G3" t="n">
         <v>396</v>
@@ -519,16 +519,16 @@
         <v>11368952</v>
       </c>
       <c r="C4" t="n">
-        <v>16491</v>
+        <v>16829</v>
       </c>
       <c r="D4" t="n">
-        <v>18662</v>
+        <v>17282</v>
       </c>
       <c r="E4" t="n">
         <v>9000</v>
       </c>
       <c r="F4" t="n">
-        <v>9662</v>
+        <v>8282</v>
       </c>
       <c r="G4" t="n">
         <v>453</v>
@@ -542,16 +542,16 @@
         <v>11368954</v>
       </c>
       <c r="C5" t="n">
-        <v>16642</v>
+        <v>17282</v>
       </c>
       <c r="D5" t="n">
-        <v>18813</v>
+        <v>17735</v>
       </c>
       <c r="E5" t="n">
         <v>9000</v>
       </c>
       <c r="F5" t="n">
-        <v>9813</v>
+        <v>8735</v>
       </c>
       <c r="G5" t="n">
         <v>453</v>
@@ -565,16 +565,16 @@
         <v>11368964</v>
       </c>
       <c r="C6" t="n">
-        <v>16793</v>
+        <v>17735</v>
       </c>
       <c r="D6" t="n">
-        <v>18964</v>
+        <v>18188</v>
       </c>
       <c r="E6" t="n">
         <v>9000</v>
       </c>
       <c r="F6" t="n">
-        <v>9964</v>
+        <v>9188</v>
       </c>
       <c r="G6" t="n">
         <v>453</v>
@@ -588,16 +588,16 @@
         <v>11369556</v>
       </c>
       <c r="C7" t="n">
-        <v>16944</v>
+        <v>18188</v>
       </c>
       <c r="D7" t="n">
-        <v>18342</v>
+        <v>18528</v>
       </c>
       <c r="E7" t="n">
         <v>9000</v>
       </c>
       <c r="F7" t="n">
-        <v>9342</v>
+        <v>9528</v>
       </c>
       <c r="G7" t="n">
         <v>340</v>
@@ -637,13 +637,13 @@
         <v>20368</v>
       </c>
       <c r="D9" t="n">
-        <v>21936</v>
+        <v>20959</v>
       </c>
       <c r="E9" t="n">
         <v>13500</v>
       </c>
       <c r="F9" t="n">
-        <v>8436</v>
+        <v>7459</v>
       </c>
       <c r="G9" t="n">
         <v>591</v>
@@ -660,13 +660,13 @@
         <v>4817</v>
       </c>
       <c r="D10" t="n">
-        <v>7451</v>
+        <v>5333</v>
       </c>
       <c r="E10" t="n">
         <v>4500</v>
       </c>
       <c r="F10" t="n">
-        <v>2951</v>
+        <v>833</v>
       </c>
       <c r="G10" t="n">
         <v>516</v>
@@ -680,16 +680,16 @@
         <v>11370670</v>
       </c>
       <c r="C11" t="n">
-        <v>5161</v>
+        <v>5849</v>
       </c>
       <c r="D11" t="n">
-        <v>7076</v>
+        <v>6265</v>
       </c>
       <c r="E11" t="n">
         <v>4500</v>
       </c>
       <c r="F11" t="n">
-        <v>2576</v>
+        <v>1765</v>
       </c>
       <c r="G11" t="n">
         <v>416</v>
@@ -703,16 +703,16 @@
         <v>11370672</v>
       </c>
       <c r="C12" t="n">
-        <v>5572</v>
+        <v>6671</v>
       </c>
       <c r="D12" t="n">
-        <v>8051</v>
+        <v>7067</v>
       </c>
       <c r="E12" t="n">
         <v>4500</v>
       </c>
       <c r="F12" t="n">
-        <v>3551</v>
+        <v>2567</v>
       </c>
       <c r="G12" t="n">
         <v>396</v>
@@ -726,16 +726,16 @@
         <v>11370753</v>
       </c>
       <c r="C13" t="n">
-        <v>6648</v>
+        <v>7693</v>
       </c>
       <c r="D13" t="n">
-        <v>6868</v>
+        <v>7913</v>
       </c>
       <c r="E13" t="n">
         <v>4500</v>
       </c>
       <c r="F13" t="n">
-        <v>2368</v>
+        <v>3413</v>
       </c>
       <c r="G13" t="n">
         <v>220</v>
@@ -749,16 +749,16 @@
         <v>11371336</v>
       </c>
       <c r="C14" t="n">
-        <v>5369</v>
+        <v>6265</v>
       </c>
       <c r="D14" t="n">
-        <v>7279</v>
+        <v>6671</v>
       </c>
       <c r="E14" t="n">
         <v>4500</v>
       </c>
       <c r="F14" t="n">
-        <v>2779</v>
+        <v>2171</v>
       </c>
       <c r="G14" t="n">
         <v>406</v>
@@ -772,16 +772,16 @@
         <v>11371337</v>
       </c>
       <c r="C15" t="n">
-        <v>4989</v>
+        <v>5333</v>
       </c>
       <c r="D15" t="n">
-        <v>7623</v>
+        <v>5849</v>
       </c>
       <c r="E15" t="n">
         <v>4500</v>
       </c>
       <c r="F15" t="n">
-        <v>3123</v>
+        <v>1349</v>
       </c>
       <c r="G15" t="n">
         <v>516</v>
@@ -795,10 +795,10 @@
         <v>11372268</v>
       </c>
       <c r="C16" t="n">
-        <v>1022</v>
+        <v>1686</v>
       </c>
       <c r="D16" t="n">
-        <v>2161</v>
+        <v>2061</v>
       </c>
       <c r="E16" t="n">
         <v>2250</v>
@@ -818,10 +818,10 @@
         <v>11372739</v>
       </c>
       <c r="C17" t="n">
-        <v>698</v>
+        <v>906</v>
       </c>
       <c r="D17" t="n">
-        <v>2036</v>
+        <v>1302</v>
       </c>
       <c r="E17" t="n">
         <v>2250</v>
@@ -841,10 +841,10 @@
         <v>11372983</v>
       </c>
       <c r="C18" t="n">
-        <v>830</v>
+        <v>1302</v>
       </c>
       <c r="D18" t="n">
-        <v>1904</v>
+        <v>1686</v>
       </c>
       <c r="E18" t="n">
         <v>2250</v>
@@ -864,16 +864,16 @@
         <v>11373157</v>
       </c>
       <c r="C19" t="n">
-        <v>8182</v>
+        <v>8575</v>
       </c>
       <c r="D19" t="n">
-        <v>13685</v>
+        <v>9091</v>
       </c>
       <c r="E19" t="n">
         <v>6750</v>
       </c>
       <c r="F19" t="n">
-        <v>6935</v>
+        <v>2341</v>
       </c>
       <c r="G19" t="n">
         <v>516</v>
@@ -887,16 +887,16 @@
         <v>11373161</v>
       </c>
       <c r="C20" t="n">
-        <v>10441</v>
+        <v>15352</v>
       </c>
       <c r="D20" t="n">
-        <v>16191</v>
+        <v>15748</v>
       </c>
       <c r="E20" t="n">
         <v>6750</v>
       </c>
       <c r="F20" t="n">
-        <v>9441</v>
+        <v>8998</v>
       </c>
       <c r="G20" t="n">
         <v>396</v>
@@ -910,16 +910,16 @@
         <v>11373183</v>
       </c>
       <c r="C21" t="n">
-        <v>8354</v>
+        <v>9091</v>
       </c>
       <c r="D21" t="n">
-        <v>13836</v>
+        <v>9544</v>
       </c>
       <c r="E21" t="n">
         <v>6750</v>
       </c>
       <c r="F21" t="n">
-        <v>7086</v>
+        <v>2794</v>
       </c>
       <c r="G21" t="n">
         <v>453</v>
@@ -933,16 +933,16 @@
         <v>11373184</v>
       </c>
       <c r="C22" t="n">
-        <v>8505</v>
+        <v>9544</v>
       </c>
       <c r="D22" t="n">
-        <v>13987</v>
+        <v>9997</v>
       </c>
       <c r="E22" t="n">
         <v>6750</v>
       </c>
       <c r="F22" t="n">
-        <v>7237</v>
+        <v>3247</v>
       </c>
       <c r="G22" t="n">
         <v>453</v>
@@ -956,16 +956,16 @@
         <v>11373185</v>
       </c>
       <c r="C23" t="n">
-        <v>8656</v>
+        <v>9997</v>
       </c>
       <c r="D23" t="n">
-        <v>14138</v>
+        <v>10450</v>
       </c>
       <c r="E23" t="n">
         <v>6750</v>
       </c>
       <c r="F23" t="n">
-        <v>7388</v>
+        <v>3700</v>
       </c>
       <c r="G23" t="n">
         <v>453</v>
@@ -979,16 +979,16 @@
         <v>11373186</v>
       </c>
       <c r="C24" t="n">
-        <v>8807</v>
+        <v>10450</v>
       </c>
       <c r="D24" t="n">
-        <v>14289</v>
+        <v>10903</v>
       </c>
       <c r="E24" t="n">
         <v>6750</v>
       </c>
       <c r="F24" t="n">
-        <v>7539</v>
+        <v>4153</v>
       </c>
       <c r="G24" t="n">
         <v>453</v>
@@ -1002,16 +1002,16 @@
         <v>11373187</v>
       </c>
       <c r="C25" t="n">
-        <v>8958</v>
+        <v>10903</v>
       </c>
       <c r="D25" t="n">
-        <v>14440</v>
+        <v>11356</v>
       </c>
       <c r="E25" t="n">
         <v>6750</v>
       </c>
       <c r="F25" t="n">
-        <v>7690</v>
+        <v>4606</v>
       </c>
       <c r="G25" t="n">
         <v>453</v>
@@ -1025,16 +1025,16 @@
         <v>11373191</v>
       </c>
       <c r="C26" t="n">
-        <v>9109</v>
+        <v>11356</v>
       </c>
       <c r="D26" t="n">
-        <v>14591</v>
+        <v>11809</v>
       </c>
       <c r="E26" t="n">
         <v>6750</v>
       </c>
       <c r="F26" t="n">
-        <v>7841</v>
+        <v>5059</v>
       </c>
       <c r="G26" t="n">
         <v>453</v>
@@ -1048,16 +1048,16 @@
         <v>11373192</v>
       </c>
       <c r="C27" t="n">
-        <v>10015</v>
+        <v>14074</v>
       </c>
       <c r="D27" t="n">
-        <v>15634</v>
+        <v>14500</v>
       </c>
       <c r="E27" t="n">
         <v>6750</v>
       </c>
       <c r="F27" t="n">
-        <v>8884</v>
+        <v>7750</v>
       </c>
       <c r="G27" t="n">
         <v>426</v>
@@ -1071,16 +1071,16 @@
         <v>11373193</v>
       </c>
       <c r="C28" t="n">
-        <v>9260</v>
+        <v>11809</v>
       </c>
       <c r="D28" t="n">
-        <v>14742</v>
+        <v>12262</v>
       </c>
       <c r="E28" t="n">
         <v>6750</v>
       </c>
       <c r="F28" t="n">
-        <v>7992</v>
+        <v>5512</v>
       </c>
       <c r="G28" t="n">
         <v>453</v>
@@ -1094,16 +1094,16 @@
         <v>11373194</v>
       </c>
       <c r="C29" t="n">
-        <v>12537</v>
+        <v>15748</v>
       </c>
       <c r="D29" t="n">
-        <v>15492</v>
+        <v>16040</v>
       </c>
       <c r="E29" t="n">
         <v>6750</v>
       </c>
       <c r="F29" t="n">
-        <v>8742</v>
+        <v>9290</v>
       </c>
       <c r="G29" t="n">
         <v>292</v>
@@ -1140,16 +1140,16 @@
         <v>11374278</v>
       </c>
       <c r="C31" t="n">
-        <v>28991</v>
+        <v>29679</v>
       </c>
       <c r="D31" t="n">
-        <v>33602</v>
+        <v>30171</v>
       </c>
       <c r="E31" t="n">
         <v>18000</v>
       </c>
       <c r="F31" t="n">
-        <v>15602</v>
+        <v>12171</v>
       </c>
       <c r="G31" t="n">
         <v>492</v>
@@ -1166,13 +1166,13 @@
         <v>28647</v>
       </c>
       <c r="D32" t="n">
-        <v>33266</v>
+        <v>29163</v>
       </c>
       <c r="E32" t="n">
         <v>18000</v>
       </c>
       <c r="F32" t="n">
-        <v>15266</v>
+        <v>11163</v>
       </c>
       <c r="G32" t="n">
         <v>516</v>
@@ -1186,16 +1186,16 @@
         <v>11374281</v>
       </c>
       <c r="C33" t="n">
-        <v>28819</v>
+        <v>29163</v>
       </c>
       <c r="D33" t="n">
-        <v>33438</v>
+        <v>29679</v>
       </c>
       <c r="E33" t="n">
         <v>18000</v>
       </c>
       <c r="F33" t="n">
-        <v>15438</v>
+        <v>11679</v>
       </c>
       <c r="G33" t="n">
         <v>516</v>
@@ -1209,16 +1209,16 @@
         <v>11378410</v>
       </c>
       <c r="C34" t="n">
-        <v>17283</v>
+        <v>18528</v>
       </c>
       <c r="D34" t="n">
-        <v>17603</v>
+        <v>18848</v>
       </c>
       <c r="E34" t="n">
         <v>9000</v>
       </c>
       <c r="F34" t="n">
-        <v>8603</v>
+        <v>9848</v>
       </c>
       <c r="G34" t="n">
         <v>320</v>
@@ -1235,13 +1235,13 @@
         <v>19218</v>
       </c>
       <c r="D35" t="n">
-        <v>20217</v>
+        <v>19695</v>
       </c>
       <c r="E35" t="n">
         <v>11250</v>
       </c>
       <c r="F35" t="n">
-        <v>8967</v>
+        <v>8445</v>
       </c>
       <c r="G35" t="n">
         <v>477</v>
@@ -1255,16 +1255,16 @@
         <v>11379249</v>
       </c>
       <c r="C36" t="n">
-        <v>19838</v>
+        <v>20148</v>
       </c>
       <c r="D36" t="n">
-        <v>20058</v>
+        <v>20368</v>
       </c>
       <c r="E36" t="n">
         <v>11250</v>
       </c>
       <c r="F36" t="n">
-        <v>8808</v>
+        <v>9118</v>
       </c>
       <c r="G36" t="n">
         <v>220</v>
@@ -1301,16 +1301,16 @@
         <v>11414947</v>
       </c>
       <c r="C38" t="n">
-        <v>13109</v>
+        <v>16040</v>
       </c>
       <c r="D38" t="n">
-        <v>16059</v>
+        <v>16322</v>
       </c>
       <c r="E38" t="n">
         <v>6750</v>
       </c>
       <c r="F38" t="n">
-        <v>9309</v>
+        <v>9572</v>
       </c>
       <c r="G38" t="n">
         <v>282</v>
@@ -1327,13 +1327,13 @@
         <v>8051</v>
       </c>
       <c r="D39" t="n">
-        <v>16322</v>
+        <v>8575</v>
       </c>
       <c r="E39" t="n">
         <v>6750</v>
       </c>
       <c r="F39" t="n">
-        <v>9572</v>
+        <v>1825</v>
       </c>
       <c r="G39" t="n">
         <v>524</v>
@@ -1347,16 +1347,16 @@
         <v>11414968</v>
       </c>
       <c r="C40" t="n">
-        <v>10157</v>
+        <v>14500</v>
       </c>
       <c r="D40" t="n">
-        <v>15776</v>
+        <v>14926</v>
       </c>
       <c r="E40" t="n">
         <v>6750</v>
       </c>
       <c r="F40" t="n">
-        <v>9026</v>
+        <v>8176</v>
       </c>
       <c r="G40" t="n">
         <v>426</v>
@@ -1370,16 +1370,16 @@
         <v>11414969</v>
       </c>
       <c r="C41" t="n">
-        <v>10299</v>
+        <v>14926</v>
       </c>
       <c r="D41" t="n">
-        <v>15918</v>
+        <v>15352</v>
       </c>
       <c r="E41" t="n">
         <v>6750</v>
       </c>
       <c r="F41" t="n">
-        <v>9168</v>
+        <v>8602</v>
       </c>
       <c r="G41" t="n">
         <v>426</v>
@@ -1393,16 +1393,16 @@
         <v>11414970</v>
       </c>
       <c r="C42" t="n">
-        <v>9411</v>
+        <v>12262</v>
       </c>
       <c r="D42" t="n">
-        <v>14893</v>
+        <v>12715</v>
       </c>
       <c r="E42" t="n">
         <v>6750</v>
       </c>
       <c r="F42" t="n">
-        <v>8143</v>
+        <v>5965</v>
       </c>
       <c r="G42" t="n">
         <v>453</v>
@@ -1416,16 +1416,16 @@
         <v>11414984</v>
       </c>
       <c r="C43" t="n">
-        <v>4575</v>
+        <v>4690</v>
       </c>
       <c r="D43" t="n">
-        <v>4702</v>
+        <v>4817</v>
       </c>
       <c r="E43" t="n">
         <v>3150</v>
       </c>
       <c r="F43" t="n">
-        <v>1552</v>
+        <v>1667</v>
       </c>
       <c r="G43" t="n">
         <v>127</v>
@@ -1442,13 +1442,13 @@
         <v>2261</v>
       </c>
       <c r="D44" t="n">
-        <v>4817</v>
+        <v>2836</v>
       </c>
       <c r="E44" t="n">
         <v>3150</v>
       </c>
       <c r="F44" t="n">
-        <v>1667</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>575</v>
@@ -1462,16 +1462,16 @@
         <v>11415008</v>
       </c>
       <c r="C45" t="n">
-        <v>6048</v>
+        <v>7067</v>
       </c>
       <c r="D45" t="n">
-        <v>7781</v>
+        <v>7383</v>
       </c>
       <c r="E45" t="n">
         <v>4500</v>
       </c>
       <c r="F45" t="n">
-        <v>3281</v>
+        <v>2883</v>
       </c>
       <c r="G45" t="n">
         <v>316</v>
@@ -1485,16 +1485,16 @@
         <v>11415042</v>
       </c>
       <c r="C46" t="n">
-        <v>6206</v>
+        <v>7383</v>
       </c>
       <c r="D46" t="n">
-        <v>6516</v>
+        <v>7693</v>
       </c>
       <c r="E46" t="n">
         <v>4500</v>
       </c>
       <c r="F46" t="n">
-        <v>2016</v>
+        <v>3193</v>
       </c>
       <c r="G46" t="n">
         <v>310</v>
@@ -1508,16 +1508,16 @@
         <v>11415059</v>
       </c>
       <c r="C47" t="n">
-        <v>7781</v>
+        <v>7913</v>
       </c>
       <c r="D47" t="n">
-        <v>7919</v>
+        <v>8051</v>
       </c>
       <c r="E47" t="n">
         <v>4500</v>
       </c>
       <c r="F47" t="n">
-        <v>3419</v>
+        <v>3551</v>
       </c>
       <c r="G47" t="n">
         <v>138</v>
@@ -1531,16 +1531,16 @@
         <v>11415197</v>
       </c>
       <c r="C48" t="n">
-        <v>2376</v>
+        <v>2836</v>
       </c>
       <c r="D48" t="n">
-        <v>4134</v>
+        <v>3367</v>
       </c>
       <c r="E48" t="n">
         <v>3150</v>
       </c>
       <c r="F48" t="n">
-        <v>984</v>
+        <v>217</v>
       </c>
       <c r="G48" t="n">
         <v>531</v>
@@ -1554,16 +1554,16 @@
         <v>11415205</v>
       </c>
       <c r="C49" t="n">
-        <v>2553</v>
+        <v>3367</v>
       </c>
       <c r="D49" t="n">
-        <v>4311</v>
+        <v>3898</v>
       </c>
       <c r="E49" t="n">
         <v>3150</v>
       </c>
       <c r="F49" t="n">
-        <v>1161</v>
+        <v>748</v>
       </c>
       <c r="G49" t="n">
         <v>531</v>
@@ -1577,16 +1577,16 @@
         <v>11415215</v>
       </c>
       <c r="C50" t="n">
-        <v>18056</v>
+        <v>18848</v>
       </c>
       <c r="D50" t="n">
-        <v>19218</v>
+        <v>19080</v>
       </c>
       <c r="E50" t="n">
         <v>9000</v>
       </c>
       <c r="F50" t="n">
-        <v>10218</v>
+        <v>10080</v>
       </c>
       <c r="G50" t="n">
         <v>232</v>
@@ -1600,16 +1600,16 @@
         <v>11415216</v>
       </c>
       <c r="C51" t="n">
-        <v>18964</v>
+        <v>19080</v>
       </c>
       <c r="D51" t="n">
-        <v>19102</v>
+        <v>19218</v>
       </c>
       <c r="E51" t="n">
         <v>9000</v>
       </c>
       <c r="F51" t="n">
-        <v>10102</v>
+        <v>10218</v>
       </c>
       <c r="G51" t="n">
         <v>138</v>
@@ -1626,13 +1626,13 @@
         <v>22466</v>
       </c>
       <c r="D52" t="n">
-        <v>26888</v>
+        <v>22997</v>
       </c>
       <c r="E52" t="n">
         <v>15750</v>
       </c>
       <c r="F52" t="n">
-        <v>11138</v>
+        <v>7247</v>
       </c>
       <c r="G52" t="n">
         <v>531</v>
@@ -1646,16 +1646,16 @@
         <v>11422517</v>
       </c>
       <c r="C53" t="n">
-        <v>24002</v>
+        <v>27074</v>
       </c>
       <c r="D53" t="n">
-        <v>26711</v>
+        <v>27440</v>
       </c>
       <c r="E53" t="n">
         <v>15750</v>
       </c>
       <c r="F53" t="n">
-        <v>10961</v>
+        <v>11690</v>
       </c>
       <c r="G53" t="n">
         <v>366</v>
@@ -1672,13 +1672,13 @@
         <v>16322</v>
       </c>
       <c r="D54" t="n">
-        <v>18511</v>
+        <v>16829</v>
       </c>
       <c r="E54" t="n">
         <v>9000</v>
       </c>
       <c r="F54" t="n">
-        <v>9511</v>
+        <v>7829</v>
       </c>
       <c r="G54" t="n">
         <v>507</v>
@@ -1692,16 +1692,16 @@
         <v>11433752</v>
       </c>
       <c r="C55" t="n">
-        <v>25821</v>
+        <v>27740</v>
       </c>
       <c r="D55" t="n">
-        <v>26101</v>
+        <v>28020</v>
       </c>
       <c r="E55" t="n">
         <v>15750</v>
       </c>
       <c r="F55" t="n">
-        <v>10351</v>
+        <v>12270</v>
       </c>
       <c r="G55" t="n">
         <v>280</v>
@@ -1715,16 +1715,16 @@
         <v>11433775</v>
       </c>
       <c r="C56" t="n">
-        <v>32614</v>
+        <v>34714</v>
       </c>
       <c r="D56" t="n">
-        <v>32861</v>
+        <v>34961</v>
       </c>
       <c r="E56" t="n">
         <v>18000</v>
       </c>
       <c r="F56" t="n">
-        <v>14861</v>
+        <v>16961</v>
       </c>
       <c r="G56" t="n">
         <v>247</v>
@@ -1741,7 +1741,7 @@
         <v>490</v>
       </c>
       <c r="D57" t="n">
-        <v>1612</v>
+        <v>906</v>
       </c>
       <c r="E57" t="n">
         <v>2250</v>
@@ -1761,16 +1761,16 @@
         <v>11467107</v>
       </c>
       <c r="C58" t="n">
-        <v>9562</v>
+        <v>12715</v>
       </c>
       <c r="D58" t="n">
-        <v>15044</v>
+        <v>13168</v>
       </c>
       <c r="E58" t="n">
         <v>6750</v>
       </c>
       <c r="F58" t="n">
-        <v>8294</v>
+        <v>6418</v>
       </c>
       <c r="G58" t="n">
         <v>453</v>
@@ -1784,7 +1784,7 @@
         <v>11472664</v>
       </c>
       <c r="C59" t="n">
-        <v>1612</v>
+        <v>2061</v>
       </c>
       <c r="D59" t="n">
         <v>2261</v>
@@ -1807,16 +1807,16 @@
         <v>11476481</v>
       </c>
       <c r="C60" t="n">
-        <v>29388</v>
+        <v>30637</v>
       </c>
       <c r="D60" t="n">
-        <v>33753</v>
+        <v>31090</v>
       </c>
       <c r="E60" t="n">
         <v>18000</v>
       </c>
       <c r="F60" t="n">
-        <v>15753</v>
+        <v>13090</v>
       </c>
       <c r="G60" t="n">
         <v>453</v>
@@ -1830,16 +1830,16 @@
         <v>11477259</v>
       </c>
       <c r="C61" t="n">
-        <v>29539</v>
+        <v>31090</v>
       </c>
       <c r="D61" t="n">
-        <v>33904</v>
+        <v>31543</v>
       </c>
       <c r="E61" t="n">
         <v>18000</v>
       </c>
       <c r="F61" t="n">
-        <v>15904</v>
+        <v>13543</v>
       </c>
       <c r="G61" t="n">
         <v>453</v>
@@ -1853,16 +1853,16 @@
         <v>11481427</v>
       </c>
       <c r="C62" t="n">
-        <v>9713</v>
+        <v>13168</v>
       </c>
       <c r="D62" t="n">
-        <v>15195</v>
+        <v>13621</v>
       </c>
       <c r="E62" t="n">
         <v>6750</v>
       </c>
       <c r="F62" t="n">
-        <v>8445</v>
+        <v>6871</v>
       </c>
       <c r="G62" t="n">
         <v>453</v>
@@ -1876,16 +1876,16 @@
         <v>11481429</v>
       </c>
       <c r="C63" t="n">
-        <v>9864</v>
+        <v>13621</v>
       </c>
       <c r="D63" t="n">
-        <v>15346</v>
+        <v>14074</v>
       </c>
       <c r="E63" t="n">
         <v>6750</v>
       </c>
       <c r="F63" t="n">
-        <v>8596</v>
+        <v>7324</v>
       </c>
       <c r="G63" t="n">
         <v>453</v>
@@ -1899,16 +1899,16 @@
         <v>11485073</v>
       </c>
       <c r="C64" t="n">
-        <v>26328</v>
+        <v>28247</v>
       </c>
       <c r="D64" t="n">
-        <v>28347</v>
+        <v>28447</v>
       </c>
       <c r="E64" t="n">
         <v>15750</v>
       </c>
       <c r="F64" t="n">
-        <v>12597</v>
+        <v>12697</v>
       </c>
       <c r="G64" t="n">
         <v>200</v>
@@ -1922,16 +1922,16 @@
         <v>11485074</v>
       </c>
       <c r="C65" t="n">
-        <v>28347</v>
+        <v>28447</v>
       </c>
       <c r="D65" t="n">
-        <v>28447</v>
+        <v>28547</v>
       </c>
       <c r="E65" t="n">
         <v>15750</v>
       </c>
       <c r="F65" t="n">
-        <v>12697</v>
+        <v>12797</v>
       </c>
       <c r="G65" t="n">
         <v>100</v>
@@ -1945,16 +1945,16 @@
         <v>11485076</v>
       </c>
       <c r="C66" t="n">
-        <v>22643</v>
+        <v>22997</v>
       </c>
       <c r="D66" t="n">
-        <v>27039</v>
+        <v>23450</v>
       </c>
       <c r="E66" t="n">
         <v>15750</v>
       </c>
       <c r="F66" t="n">
-        <v>11289</v>
+        <v>7700</v>
       </c>
       <c r="G66" t="n">
         <v>453</v>
@@ -1968,16 +1968,16 @@
         <v>11485078</v>
       </c>
       <c r="C67" t="n">
-        <v>28447</v>
+        <v>28547</v>
       </c>
       <c r="D67" t="n">
-        <v>28547</v>
+        <v>28647</v>
       </c>
       <c r="E67" t="n">
         <v>15750</v>
       </c>
       <c r="F67" t="n">
-        <v>12797</v>
+        <v>12897</v>
       </c>
       <c r="G67" t="n">
         <v>100</v>
@@ -1991,16 +1991,16 @@
         <v>11485079</v>
       </c>
       <c r="C68" t="n">
-        <v>25721</v>
+        <v>27440</v>
       </c>
       <c r="D68" t="n">
-        <v>28647</v>
+        <v>27740</v>
       </c>
       <c r="E68" t="n">
         <v>15750</v>
       </c>
       <c r="F68" t="n">
-        <v>12897</v>
+        <v>11990</v>
       </c>
       <c r="G68" t="n">
         <v>300</v>
@@ -2014,16 +2014,16 @@
         <v>11485080</v>
       </c>
       <c r="C69" t="n">
-        <v>22794</v>
+        <v>23450</v>
       </c>
       <c r="D69" t="n">
-        <v>27190</v>
+        <v>23903</v>
       </c>
       <c r="E69" t="n">
         <v>15750</v>
       </c>
       <c r="F69" t="n">
-        <v>11440</v>
+        <v>8153</v>
       </c>
       <c r="G69" t="n">
         <v>453</v>
@@ -2037,16 +2037,16 @@
         <v>11485084</v>
       </c>
       <c r="C70" t="n">
-        <v>22945</v>
+        <v>23903</v>
       </c>
       <c r="D70" t="n">
-        <v>27341</v>
+        <v>24356</v>
       </c>
       <c r="E70" t="n">
         <v>15750</v>
       </c>
       <c r="F70" t="n">
-        <v>11591</v>
+        <v>8606</v>
       </c>
       <c r="G70" t="n">
         <v>453</v>
@@ -2060,16 +2060,16 @@
         <v>11485085</v>
       </c>
       <c r="C71" t="n">
-        <v>23096</v>
+        <v>24356</v>
       </c>
       <c r="D71" t="n">
-        <v>27492</v>
+        <v>24809</v>
       </c>
       <c r="E71" t="n">
         <v>15750</v>
       </c>
       <c r="F71" t="n">
-        <v>11742</v>
+        <v>9059</v>
       </c>
       <c r="G71" t="n">
         <v>453</v>
@@ -2083,16 +2083,16 @@
         <v>11485086</v>
       </c>
       <c r="C72" t="n">
-        <v>23247</v>
+        <v>24809</v>
       </c>
       <c r="D72" t="n">
-        <v>27643</v>
+        <v>25262</v>
       </c>
       <c r="E72" t="n">
         <v>15750</v>
       </c>
       <c r="F72" t="n">
-        <v>11893</v>
+        <v>9512</v>
       </c>
       <c r="G72" t="n">
         <v>453</v>
@@ -2106,16 +2106,16 @@
         <v>11485087</v>
       </c>
       <c r="C73" t="n">
-        <v>23398</v>
+        <v>25262</v>
       </c>
       <c r="D73" t="n">
-        <v>27794</v>
+        <v>25715</v>
       </c>
       <c r="E73" t="n">
         <v>15750</v>
       </c>
       <c r="F73" t="n">
-        <v>12044</v>
+        <v>9965</v>
       </c>
       <c r="G73" t="n">
         <v>453</v>
@@ -2129,16 +2129,16 @@
         <v>11485088</v>
       </c>
       <c r="C74" t="n">
-        <v>23549</v>
+        <v>25715</v>
       </c>
       <c r="D74" t="n">
-        <v>27945</v>
+        <v>26168</v>
       </c>
       <c r="E74" t="n">
         <v>15750</v>
       </c>
       <c r="F74" t="n">
-        <v>12195</v>
+        <v>10418</v>
       </c>
       <c r="G74" t="n">
         <v>453</v>
@@ -2152,16 +2152,16 @@
         <v>11485090</v>
       </c>
       <c r="C75" t="n">
-        <v>23700</v>
+        <v>26168</v>
       </c>
       <c r="D75" t="n">
-        <v>28096</v>
+        <v>26621</v>
       </c>
       <c r="E75" t="n">
         <v>15750</v>
       </c>
       <c r="F75" t="n">
-        <v>12346</v>
+        <v>10871</v>
       </c>
       <c r="G75" t="n">
         <v>453</v>
@@ -2175,16 +2175,16 @@
         <v>11485091</v>
       </c>
       <c r="C76" t="n">
-        <v>23851</v>
+        <v>26621</v>
       </c>
       <c r="D76" t="n">
-        <v>28247</v>
+        <v>27074</v>
       </c>
       <c r="E76" t="n">
         <v>15750</v>
       </c>
       <c r="F76" t="n">
-        <v>12497</v>
+        <v>11324</v>
       </c>
       <c r="G76" t="n">
         <v>453</v>
@@ -2198,16 +2198,16 @@
         <v>11485130</v>
       </c>
       <c r="C77" t="n">
-        <v>29155</v>
+        <v>30171</v>
       </c>
       <c r="D77" t="n">
-        <v>33094</v>
+        <v>30637</v>
       </c>
       <c r="E77" t="n">
         <v>18000</v>
       </c>
       <c r="F77" t="n">
-        <v>15094</v>
+        <v>12637</v>
       </c>
       <c r="G77" t="n">
         <v>466</v>
@@ -2221,16 +2221,16 @@
         <v>11488530</v>
       </c>
       <c r="C78" t="n">
-        <v>29690</v>
+        <v>31543</v>
       </c>
       <c r="D78" t="n">
-        <v>34055</v>
+        <v>31996</v>
       </c>
       <c r="E78" t="n">
         <v>18000</v>
       </c>
       <c r="F78" t="n">
-        <v>16055</v>
+        <v>13996</v>
       </c>
       <c r="G78" t="n">
         <v>453</v>
@@ -2244,16 +2244,16 @@
         <v>11488531</v>
       </c>
       <c r="C79" t="n">
-        <v>29841</v>
+        <v>31996</v>
       </c>
       <c r="D79" t="n">
-        <v>34206</v>
+        <v>32449</v>
       </c>
       <c r="E79" t="n">
         <v>18000</v>
       </c>
       <c r="F79" t="n">
-        <v>16206</v>
+        <v>14449</v>
       </c>
       <c r="G79" t="n">
         <v>453</v>
@@ -2267,16 +2267,16 @@
         <v>11488532</v>
       </c>
       <c r="C80" t="n">
-        <v>29992</v>
+        <v>32449</v>
       </c>
       <c r="D80" t="n">
-        <v>34357</v>
+        <v>32902</v>
       </c>
       <c r="E80" t="n">
         <v>18000</v>
       </c>
       <c r="F80" t="n">
-        <v>16357</v>
+        <v>14902</v>
       </c>
       <c r="G80" t="n">
         <v>453</v>
@@ -2290,16 +2290,16 @@
         <v>11488533</v>
       </c>
       <c r="C81" t="n">
-        <v>30143</v>
+        <v>32902</v>
       </c>
       <c r="D81" t="n">
-        <v>34508</v>
+        <v>33355</v>
       </c>
       <c r="E81" t="n">
         <v>18000</v>
       </c>
       <c r="F81" t="n">
-        <v>16508</v>
+        <v>15355</v>
       </c>
       <c r="G81" t="n">
         <v>453</v>
@@ -2313,16 +2313,16 @@
         <v>11488534</v>
       </c>
       <c r="C82" t="n">
-        <v>30294</v>
+        <v>33355</v>
       </c>
       <c r="D82" t="n">
-        <v>34659</v>
+        <v>33808</v>
       </c>
       <c r="E82" t="n">
         <v>18000</v>
       </c>
       <c r="F82" t="n">
-        <v>16659</v>
+        <v>15808</v>
       </c>
       <c r="G82" t="n">
         <v>453</v>
@@ -2336,16 +2336,16 @@
         <v>11489978</v>
       </c>
       <c r="C83" t="n">
-        <v>19377</v>
+        <v>19695</v>
       </c>
       <c r="D83" t="n">
-        <v>20368</v>
+        <v>20148</v>
       </c>
       <c r="E83" t="n">
         <v>11250</v>
       </c>
       <c r="F83" t="n">
-        <v>9118</v>
+        <v>8898</v>
       </c>
       <c r="G83" t="n">
         <v>453</v>
@@ -2359,16 +2359,16 @@
         <v>11490932</v>
       </c>
       <c r="C84" t="n">
-        <v>21366</v>
+        <v>21865</v>
       </c>
       <c r="D84" t="n">
-        <v>21616</v>
+        <v>22115</v>
       </c>
       <c r="E84" t="n">
         <v>13500</v>
       </c>
       <c r="F84" t="n">
-        <v>8116</v>
+        <v>8615</v>
       </c>
       <c r="G84" t="n">
         <v>250</v>
@@ -2382,7 +2382,7 @@
         <v>11492742</v>
       </c>
       <c r="C85" t="n">
-        <v>21616</v>
+        <v>22115</v>
       </c>
       <c r="D85" t="n">
         <v>22361</v>
@@ -2405,16 +2405,16 @@
         <v>11492799</v>
       </c>
       <c r="C86" t="n">
-        <v>20565</v>
+        <v>20959</v>
       </c>
       <c r="D86" t="n">
-        <v>22087</v>
+        <v>21412</v>
       </c>
       <c r="E86" t="n">
         <v>13500</v>
       </c>
       <c r="F86" t="n">
-        <v>8587</v>
+        <v>7912</v>
       </c>
       <c r="G86" t="n">
         <v>453</v>
@@ -2428,16 +2428,16 @@
         <v>11492808</v>
       </c>
       <c r="C87" t="n">
-        <v>20716</v>
+        <v>21412</v>
       </c>
       <c r="D87" t="n">
-        <v>22238</v>
+        <v>21865</v>
       </c>
       <c r="E87" t="n">
         <v>13500</v>
       </c>
       <c r="F87" t="n">
-        <v>8738</v>
+        <v>8365</v>
       </c>
       <c r="G87" t="n">
         <v>453</v>
@@ -2451,16 +2451,16 @@
         <v>11493533</v>
       </c>
       <c r="C88" t="n">
-        <v>30445</v>
+        <v>33808</v>
       </c>
       <c r="D88" t="n">
-        <v>34810</v>
+        <v>34261</v>
       </c>
       <c r="E88" t="n">
         <v>18000</v>
       </c>
       <c r="F88" t="n">
-        <v>16810</v>
+        <v>16261</v>
       </c>
       <c r="G88" t="n">
         <v>453</v>
@@ -2474,16 +2474,16 @@
         <v>11493534</v>
       </c>
       <c r="C89" t="n">
-        <v>30596</v>
+        <v>34261</v>
       </c>
       <c r="D89" t="n">
-        <v>34961</v>
+        <v>34714</v>
       </c>
       <c r="E89" t="n">
         <v>18000</v>
       </c>
       <c r="F89" t="n">
-        <v>16961</v>
+        <v>16714</v>
       </c>
       <c r="G89" t="n">
         <v>453</v>
@@ -2497,16 +2497,16 @@
         <v>11494229</v>
       </c>
       <c r="C90" t="n">
-        <v>26101</v>
+        <v>28020</v>
       </c>
       <c r="D90" t="n">
-        <v>26328</v>
+        <v>28247</v>
       </c>
       <c r="E90" t="n">
         <v>15750</v>
       </c>
       <c r="F90" t="n">
-        <v>10578</v>
+        <v>12497</v>
       </c>
       <c r="G90" t="n">
         <v>227</v>
